--- a/diary/2017-5-18(L).xlsx
+++ b/diary/2017-5-18(L).xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>P</t>
   </si>
@@ -82,10 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>全家腿條</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>堅果 50g</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -99,6 +95,14 @@
   </si>
   <si>
     <t>蘋果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7 海鮮丸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飲料</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -492,7 +496,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:E12"/>
+      <selection activeCell="A13" sqref="A13:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -536,7 +540,7 @@
         <v>2.1</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -553,7 +557,7 @@
         <v>6.4</v>
       </c>
       <c r="F3" s="1">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -575,7 +579,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1">
         <v>92</v>
@@ -637,16 +641,16 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1">
-        <v>11.6</v>
+        <v>13.9</v>
       </c>
       <c r="C10" s="1">
-        <v>13.5</v>
+        <v>10.3</v>
       </c>
       <c r="D10" s="1">
-        <v>17.5</v>
+        <v>9.1</v>
       </c>
       <c r="F10" s="1">
         <v>38</v>
@@ -654,7 +658,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1">
         <v>8.9499999999999993</v>
@@ -666,9 +670,26 @@
         <v>26.8</v>
       </c>
     </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>25</v>
+      </c>
+    </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -676,7 +697,7 @@
         <v>10</v>
       </c>
       <c r="F17" s="1">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -685,23 +706,23 @@
       </c>
       <c r="B18" s="1">
         <f>SUM(B2:B17)</f>
-        <v>188.04999999999998</v>
+        <v>190.35</v>
       </c>
       <c r="C18" s="1">
         <f>SUM(C2:C17)</f>
-        <v>72.500000000000014</v>
+        <v>78.100000000000009</v>
       </c>
       <c r="D18" s="1">
         <f>SUM(D2:D17)</f>
-        <v>91.17</v>
+        <v>82.77000000000001</v>
       </c>
       <c r="E18" s="1">
         <f>SUM(B18*4, C18*4, D18*9)</f>
-        <v>1862.73</v>
+        <v>1818.73</v>
       </c>
       <c r="F18" s="1">
         <f>SUM(F2:F17)</f>
-        <v>256</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
